--- a/flow_recs/flow_recs_willow_workings.xlsx
+++ b/flow_recs/flow_recs_willow_workings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/git/flow_eco_mech/flow_recs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28724D2C-87B6-124A-BEE4-367DCDD4FABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043EBEFE-D44A-BA43-B4CC-1983722FA2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="1860" windowWidth="26840" windowHeight="15940" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
+    <workbookView xWindow="3260" yWindow="1720" windowWidth="15620" windowHeight="15940" activeTab="1" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
   </bookViews>
   <sheets>
     <sheet name="Willow" sheetId="1" r:id="rId1"/>
+    <sheet name="Typha" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
   <si>
     <t>Willow growth</t>
   </si>
@@ -301,13 +302,100 @@
   </si>
   <si>
     <t>concrete</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Typha growth</t>
+  </si>
+  <si>
+    <t>Typha adult</t>
+  </si>
+  <si>
+    <t>&lt;23 &amp; &gt;71</t>
+  </si>
+  <si>
+    <t>6-1419</t>
+  </si>
+  <si>
+    <t>135-994</t>
+  </si>
+  <si>
+    <t>0.45-52</t>
+  </si>
+  <si>
+    <t>0.45-0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try an over bank </t>
+  </si>
+  <si>
+    <t>23-196</t>
+  </si>
+  <si>
+    <t>83-1968</t>
+  </si>
+  <si>
+    <t>293-1418</t>
+  </si>
+  <si>
+    <t>23-28</t>
+  </si>
+  <si>
+    <t>23-10</t>
+  </si>
+  <si>
+    <t>could try ROB but it is the main channel</t>
+  </si>
+  <si>
+    <t>values are correct, cannot achieve high vewlocity - model resolution issue</t>
+  </si>
+  <si>
+    <t>does not reach high limit</t>
+  </si>
+  <si>
+    <t>23-568</t>
+  </si>
+  <si>
+    <t>23-165</t>
+  </si>
+  <si>
+    <t>77-1703</t>
+  </si>
+  <si>
+    <t>270-1237</t>
+  </si>
+  <si>
+    <t>24-48</t>
+  </si>
+  <si>
+    <t>24-1242</t>
+  </si>
+  <si>
+    <t>93-823</t>
+  </si>
+  <si>
+    <t>23-65</t>
+  </si>
+  <si>
+    <t>52-113</t>
+  </si>
+  <si>
+    <t>26-1486</t>
+  </si>
+  <si>
+    <t>26-586</t>
+  </si>
+  <si>
+    <t>91-1010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,6 +441,18 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,6 +490,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C44ECAE-18BD-9B44-A259-6876D2537660}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1424,4 +1526,926 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08258E46-6C5B-3845-AB5F-F130D4BBDC74}">
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0.45473939180374101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>7.6612300872802699</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>22.984325408935501</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>24.5054531097412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>26.229257579999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>0.45473939180374101</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53">
+        <v>23.112771987915</v>
+      </c>
+      <c r="H53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59">
+        <v>22.98432541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <v>24.5054531097412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71">
+        <v>26.229257579999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/flow_recs/flow_recs_willow_workings.xlsx
+++ b/flow_recs/flow_recs_willow_workings.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/git/flow_eco_mech/flow_recs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043EBEFE-D44A-BA43-B4CC-1983722FA2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2E284-1B15-994C-A06E-3D1F39C23A87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="1720" windowWidth="15620" windowHeight="15940" activeTab="1" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
+    <workbookView xWindow="5620" yWindow="1080" windowWidth="25480" windowHeight="15940" activeTab="4" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
   </bookViews>
   <sheets>
     <sheet name="Willow" sheetId="1" r:id="rId1"/>
     <sheet name="Typha" sheetId="2" r:id="rId2"/>
+    <sheet name="Cladophora" sheetId="3" r:id="rId3"/>
+    <sheet name="SAS" sheetId="4" r:id="rId4"/>
+    <sheet name="Steelhead" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="205">
+  <si>
+    <t>LA202</t>
+  </si>
   <si>
     <t>Willow growth</t>
   </si>
@@ -160,6 +166,9 @@
     <t>400-1038</t>
   </si>
   <si>
+    <t>&lt;23</t>
+  </si>
+  <si>
     <t>&lt;1906</t>
   </si>
   <si>
@@ -304,6 +313,12 @@
     <t>concrete</t>
   </si>
   <si>
+    <t>LA2</t>
+  </si>
+  <si>
+    <t>LA1</t>
+  </si>
+  <si>
     <t>Velocity</t>
   </si>
   <si>
@@ -389,13 +404,262 @@
   </si>
   <si>
     <t>91-1010</t>
+  </si>
+  <si>
+    <t>Cladophora adult</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>shear stress</t>
+  </si>
+  <si>
+    <t>LA20</t>
+  </si>
+  <si>
+    <t>LA13</t>
+  </si>
+  <si>
+    <t>LA8</t>
+  </si>
+  <si>
+    <t>F34D</t>
+  </si>
+  <si>
+    <t>LA3</t>
+  </si>
+  <si>
+    <t>F319</t>
+  </si>
+  <si>
+    <t>F37B_High</t>
+  </si>
+  <si>
+    <t>Min flow needed</t>
+  </si>
+  <si>
+    <t>1.6-2659</t>
+  </si>
+  <si>
+    <t>1.6-300</t>
+  </si>
+  <si>
+    <t>&gt;17</t>
+  </si>
+  <si>
+    <t>&gt;45</t>
+  </si>
+  <si>
+    <t>&lt;16912</t>
+  </si>
+  <si>
+    <t>&gt;50</t>
+  </si>
+  <si>
+    <t>&gt;60</t>
+  </si>
+  <si>
+    <t>0.45-4093</t>
+  </si>
+  <si>
+    <t>0.45-914</t>
+  </si>
+  <si>
+    <t>Hard bottom</t>
+  </si>
+  <si>
+    <t>37-16595</t>
+  </si>
+  <si>
+    <t>37-6816</t>
+  </si>
+  <si>
+    <t>&gt;192</t>
+  </si>
+  <si>
+    <t>&gt;332</t>
+  </si>
+  <si>
+    <t>&lt;40486</t>
+  </si>
+  <si>
+    <t>23-4758</t>
+  </si>
+  <si>
+    <t>23-1149</t>
+  </si>
+  <si>
+    <t>&gt;537</t>
+  </si>
+  <si>
+    <t>&gt;927</t>
+  </si>
+  <si>
+    <t>24.5-4572</t>
+  </si>
+  <si>
+    <t>24.5-747</t>
+  </si>
+  <si>
+    <t>&gt;57</t>
+  </si>
+  <si>
+    <t>&gt;195</t>
+  </si>
+  <si>
+    <t>SAS adult</t>
+  </si>
+  <si>
+    <t>SAS juvenile</t>
+  </si>
+  <si>
+    <t>LA20_2Jan</t>
+  </si>
+  <si>
+    <t>&lt;1049</t>
+  </si>
+  <si>
+    <t>&lt;1017</t>
+  </si>
+  <si>
+    <t>&lt;1646</t>
+  </si>
+  <si>
+    <t>&lt;1502</t>
+  </si>
+  <si>
+    <t>29-624</t>
+  </si>
+  <si>
+    <t>147-496</t>
+  </si>
+  <si>
+    <t>16-60</t>
+  </si>
+  <si>
+    <t>30-60</t>
+  </si>
+  <si>
+    <t>998-5462</t>
+  </si>
+  <si>
+    <t>1945-4763</t>
+  </si>
+  <si>
+    <t>35-707</t>
+  </si>
+  <si>
+    <t>85-506</t>
+  </si>
+  <si>
+    <t>794-4370</t>
+  </si>
+  <si>
+    <t>999-3781</t>
+  </si>
+  <si>
+    <t>18-430</t>
+  </si>
+  <si>
+    <t>102-341</t>
+  </si>
+  <si>
+    <t>524-1389</t>
+  </si>
+  <si>
+    <t>649-1205</t>
+  </si>
+  <si>
+    <t>114-37204</t>
+  </si>
+  <si>
+    <t>217-24509</t>
+  </si>
+  <si>
+    <t>Steelhead migration</t>
+  </si>
+  <si>
+    <t>F300</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>prolonged swlmming</t>
+  </si>
+  <si>
+    <t>burst swimming</t>
+  </si>
+  <si>
+    <t>smolts</t>
+  </si>
+  <si>
+    <t>&gt;84</t>
+  </si>
+  <si>
+    <t>0.45-451</t>
+  </si>
+  <si>
+    <t>0.45-2921</t>
+  </si>
+  <si>
+    <t>&gt;7</t>
+  </si>
+  <si>
+    <t>&gt;25</t>
+  </si>
+  <si>
+    <t>&gt;18</t>
+  </si>
+  <si>
+    <t>&gt;52</t>
+  </si>
+  <si>
+    <t>1.9-214</t>
+  </si>
+  <si>
+    <t>1.9-2134</t>
+  </si>
+  <si>
+    <t>&gt;11</t>
+  </si>
+  <si>
+    <t>&gt;43</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>&gt;8</t>
+  </si>
+  <si>
+    <t>&gt;7.66-17069</t>
+  </si>
+  <si>
+    <t>&gt;7.66-39231</t>
+  </si>
+  <si>
+    <t>&gt;998</t>
+  </si>
+  <si>
+    <t>&gt;710</t>
+  </si>
+  <si>
+    <t>37-5275</t>
+  </si>
+  <si>
+    <t>37-40486</t>
+  </si>
+  <si>
+    <t>&gt;336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,6 +717,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -492,6 +764,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C44ECAE-18BD-9B44-A259-6876D2537660}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,84 +1101,84 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>8093.9331050000001</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -912,617 +1189,679 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>1278</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>394.48394775390602</v>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>394.48394775390602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G17" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13">
+      <c r="H17">
         <v>22.98432541</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="6" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19">
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
         <v>418.54925539999999</v>
       </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="E24" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25">
-        <v>26.2292575836182</v>
-      </c>
-      <c r="I25" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I26" t="s">
-        <v>62</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
+      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <v>26.2292575836182</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>11101250</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39">
+        <v>5.3034481000000001E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35">
-        <v>5.3034481000000001E-2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="E46" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>13</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G51" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>11101250</v>
+      <c r="A53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B61:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1532,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08258E46-6C5B-3845-AB5F-F130D4BBDC74}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,50 +1887,50 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>0.45473939180374101</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
@@ -1600,13 +1939,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1627,25 +1966,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>7.6612300872802699</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1654,7 +1993,7 @@
       <c r="B8" s="1"/>
       <c r="E8" s="6"/>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1665,7 +2004,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
@@ -1675,7 +2014,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1697,19 +2036,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>22.984325408935501</v>
@@ -1729,7 +2068,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -1738,7 +2077,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1758,19 +2097,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19">
         <v>24.5054531097412</v>
@@ -1787,7 +2126,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
@@ -1796,7 +2135,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1816,19 +2155,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>26.229257579999999</v>
@@ -1845,7 +2184,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="4"/>
@@ -1864,7 +2203,7 @@
         <v>11101250</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1878,7 +2217,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -1898,10 +2237,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1915,7 +2254,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1926,7 +2265,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1946,10 +2285,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1963,7 +2302,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1974,7 +2313,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1985,57 +2324,57 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48">
         <v>0.45473939180374101</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2044,7 +2383,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
@@ -2064,37 +2403,37 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53">
         <v>23.112771987915</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2103,7 +2442,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="4"/>
@@ -2112,7 +2451,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2132,19 +2471,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G59">
         <v>22.98432541</v>
@@ -2153,16 +2492,16 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2171,7 +2510,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
@@ -2180,7 +2519,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2200,19 +2539,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G65">
         <v>24.5054531097412</v>
@@ -2221,13 +2560,13 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2236,7 +2575,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="4"/>
@@ -2245,7 +2584,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2265,19 +2604,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G71">
         <v>26.229257579999999</v>
@@ -2286,13 +2625,13 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2301,7 +2640,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="4"/>
@@ -2320,13 +2659,13 @@
         <v>11101250</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E77" s="10"/>
     </row>
@@ -2336,7 +2675,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="4"/>
@@ -2356,15 +2695,15 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2375,7 +2714,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2386,7 +2725,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2406,15 +2745,15 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2425,7 +2764,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2436,7 +2775,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2448,4 +2787,1838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69081ECA-0F5B-254E-9655-7017F006CF89}">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>1.5979483127594001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="K11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="K16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="K17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="K18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98868F43-95AF-034B-9F5A-924E43B3E2AC}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="4"/>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="K34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="4"/>
+      <c r="K35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="4"/>
+      <c r="K36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="K38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C0F6AF-BA62-5A49-9975-A49839EAE4BB}">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>1.9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="I16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4"/>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="4"/>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>7.66</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="12"/>
+      <c r="I24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="4"/>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4"/>
+      <c r="I26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/flow_recs/flow_recs_willow_workings.xlsx
+++ b/flow_recs/flow_recs_willow_workings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/git/flow_eco_mech/flow_recs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2E284-1B15-994C-A06E-3D1F39C23A87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C41CCD5-FD51-CB43-8CEC-2D79784AEDA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="1080" windowWidth="25480" windowHeight="15940" activeTab="4" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
+    <workbookView xWindow="3840" yWindow="1820" windowWidth="25480" windowHeight="15940" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
   </bookViews>
   <sheets>
     <sheet name="Willow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="224">
   <si>
     <t>LA202</t>
   </si>
@@ -541,24 +541,6 @@
     <t>30-60</t>
   </si>
   <si>
-    <t>998-5462</t>
-  </si>
-  <si>
-    <t>1945-4763</t>
-  </si>
-  <si>
-    <t>35-707</t>
-  </si>
-  <si>
-    <t>85-506</t>
-  </si>
-  <si>
-    <t>794-4370</t>
-  </si>
-  <si>
-    <t>999-3781</t>
-  </si>
-  <si>
     <t>18-430</t>
   </si>
   <si>
@@ -653,13 +635,88 @@
   </si>
   <si>
     <t>&gt;336</t>
+  </si>
+  <si>
+    <t>44-615</t>
+  </si>
+  <si>
+    <t>136-482</t>
+  </si>
+  <si>
+    <t>13-870</t>
+  </si>
+  <si>
+    <t>24-415</t>
+  </si>
+  <si>
+    <t>64-326</t>
+  </si>
+  <si>
+    <t>7.66-1597</t>
+  </si>
+  <si>
+    <t>7911-9004</t>
+  </si>
+  <si>
+    <t>7911-8558</t>
+  </si>
+  <si>
+    <t>&gt;1278</t>
+  </si>
+  <si>
+    <t>1278-1646</t>
+  </si>
+  <si>
+    <t>1278-1502</t>
+  </si>
+  <si>
+    <t>424-841</t>
+  </si>
+  <si>
+    <t>424-655</t>
+  </si>
+  <si>
+    <t>23-250</t>
+  </si>
+  <si>
+    <t>23-149</t>
+  </si>
+  <si>
+    <t>446-844</t>
+  </si>
+  <si>
+    <t>446-666</t>
+  </si>
+  <si>
+    <t>26-159</t>
+  </si>
+  <si>
+    <t>26-39</t>
+  </si>
+  <si>
+    <t>54-114</t>
+  </si>
+  <si>
+    <t>54-86</t>
+  </si>
+  <si>
+    <t>285-301</t>
+  </si>
+  <si>
+    <t>285-298</t>
+  </si>
+  <si>
+    <t>36-487</t>
+  </si>
+  <si>
+    <t>36-269</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -725,6 +782,13 @@
       <sz val="11"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -746,12 +810,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,6 +830,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C44ECAE-18BD-9B44-A259-6876D2537660}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,11 +1224,11 @@
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I3" t="s">
@@ -1172,21 +1240,25 @@
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1195,11 +1267,11 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G6" t="s">
@@ -1220,11 +1292,11 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>160</v>
       </c>
       <c r="I7" t="s">
@@ -1236,7 +1308,15 @@
       <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1288,7 +1368,7 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I12" t="s">
@@ -1300,26 +1380,32 @@
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1349,7 +1435,7 @@
       <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="I18" t="s">
@@ -1361,7 +1447,13 @@
       <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I19" t="s">
@@ -1369,21 +1461,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1416,7 +1508,7 @@
       <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1425,48 +1517,54 @@
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1499,7 +1597,7 @@
       <c r="D30" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I30" t="s">
@@ -1511,7 +1609,13 @@
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I31" t="s">
@@ -1519,21 +1623,21 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -1566,7 +1670,7 @@
       <c r="D35" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1575,22 +1679,28 @@
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>72</v>
       </c>
       <c r="I36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1619,11 +1729,11 @@
       <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>62</v>
       </c>
       <c r="I40" t="s">
@@ -1637,25 +1747,31 @@
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="D41" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>58</v>
       </c>
       <c r="I41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1684,11 +1800,11 @@
       <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1696,22 +1812,28 @@
       <c r="B47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="D47" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -1820,44 +1942,44 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1929,16 +2051,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="1"/>
@@ -1991,7 +2113,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
       <c r="H8" t="s">
         <v>109</v>
       </c>
@@ -2003,35 +2125,35 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2058,7 +2180,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2067,33 +2189,33 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2118,40 +2240,40 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2176,27 +2298,27 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -2209,31 +2331,31 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -2245,43 +2367,43 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -2293,34 +2415,34 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2365,15 +2487,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
+    <row r="49" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2432,7 +2554,7 @@
       <c r="D54" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2441,33 +2563,33 @@
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -2497,7 +2619,7 @@
       <c r="D60" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H60" t="s">
@@ -2509,33 +2631,33 @@
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -2565,7 +2687,7 @@
       <c r="D66" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2574,33 +2696,33 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="8"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -2630,7 +2752,7 @@
       <c r="D72" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2639,20 +2761,20 @@
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="8"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="8"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -2667,31 +2789,31 @@
       <c r="B77" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="10"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -2705,43 +2827,43 @@
       <c r="B82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -2755,34 +2877,34 @@
       <c r="B88" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2794,13 +2916,13 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H39"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="12"/>
+    <col min="4" max="6" width="10.83203125" style="11"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2811,13 +2933,13 @@
       <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
@@ -2834,10 +2956,10 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G2" t="s">
@@ -2852,11 +2974,11 @@
       <c r="B3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2865,7 +2987,7 @@
       <c r="B4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2875,18 +2997,18 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2896,10 +3018,10 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>141</v>
       </c>
       <c r="G7" t="s">
@@ -2914,10 +3036,10 @@
       <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2926,7 +3048,7 @@
       <c r="B9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2934,31 +3056,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="K11" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2970,10 +3092,10 @@
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>144</v>
       </c>
       <c r="G13" t="s">
@@ -2991,10 +3113,10 @@
       <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>146</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -3006,7 +3128,7 @@
       <c r="B15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>147</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -3014,31 +3136,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
       <c r="K16" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="K17" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="K18" s="1" t="s">
         <v>130</v>
       </c>
@@ -3050,10 +3172,10 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>149</v>
       </c>
       <c r="G19" t="s">
@@ -3071,10 +3193,10 @@
       <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>151</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3086,7 +3208,7 @@
       <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>45</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3094,26 +3216,26 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3122,10 +3244,10 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>153</v>
       </c>
       <c r="G25" t="s">
@@ -3140,10 +3262,10 @@
       <c r="B26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3157,19 +3279,19 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3187,7 +3309,7 @@
       <c r="B31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -3196,18 +3318,18 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -3224,7 +3346,7 @@
       <c r="B36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
@@ -3232,26 +3354,26 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -3268,7 +3390,7 @@
       <c r="B42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
@@ -3276,20 +3398,20 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3300,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98868F43-95AF-034B-9F5A-924E43B3E2AC}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H57"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3316,13 +3438,13 @@
       <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
@@ -3336,9 +3458,9 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3353,87 +3475,93 @@
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="K6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="3"/>
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="3"/>
       <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>7.66</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3443,13 +3571,13 @@
       <c r="B10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3457,39 +3585,39 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3498,63 +3626,69 @@
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="15">
+        <v>22.984325399999999</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3563,43 +3697,43 @@
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -3608,47 +3742,47 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -3657,83 +3791,83 @@
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="12"/>
+      <c r="D31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="K34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="3"/>
       <c r="K35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="3"/>
       <c r="K36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="D37" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="11"/>
       <c r="K37" s="1" t="s">
         <v>7</v>
       </c>
@@ -3743,9 +3877,9 @@
       <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="K38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3753,39 +3887,39 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3794,59 +3928,65 @@
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="D43" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="15">
+        <v>22.984325399999999</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="12"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -3855,43 +3995,43 @@
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="12"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -3900,36 +4040,36 @@
       <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3940,7 +4080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C0F6AF-BA62-5A49-9975-A49839EAE4BB}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3952,12 +4092,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
@@ -3971,7 +4111,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3979,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>185</v>
+      <c r="D3" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -3997,87 +4137,87 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>186</v>
+      <c r="D4" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>191</v>
+      <c r="D5" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>187</v>
+      <c r="D6" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>188</v>
+      <c r="D7" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>189</v>
+      <c r="D11" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -4092,28 +4232,28 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>192</v>
+      <c r="D12" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>190</v>
+      <c r="D13" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>5</v>
@@ -4122,58 +4262,58 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>193</v>
+      <c r="D14" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>194</v>
+      <c r="D15" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
       <c r="I16" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3"/>
       <c r="I17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -4183,13 +4323,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>195</v>
+      <c r="D19" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>26</v>
@@ -4204,13 +4344,13 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>198</v>
+      <c r="D20" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>127</v>
@@ -4219,13 +4359,13 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>196</v>
+      <c r="D21" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>128</v>
@@ -4234,58 +4374,58 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>199</v>
+      <c r="D22" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>197</v>
+      <c r="D23" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
       <c r="I24" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="3"/>
       <c r="I25" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
       <c r="I26" s="1" t="s">
         <v>91</v>
       </c>
@@ -4295,13 +4435,13 @@
         <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>200</v>
+      <c r="D27" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
@@ -4316,76 +4456,76 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>202</v>
+      <c r="D28" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>201</v>
+      <c r="D29" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>203</v>
+      <c r="D30" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>204</v>
+      <c r="D31" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
@@ -4396,227 +4536,227 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="4"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="4"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="4"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="4"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="12"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="12"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="12"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="4"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/flow_recs/flow_recs_willow_workings.xlsx
+++ b/flow_recs/flow_recs_willow_workings.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/git/flow_eco_mech/flow_recs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C41CCD5-FD51-CB43-8CEC-2D79784AEDA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5013633D-CAE6-6D4C-AF3B-F2398B7D7B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1820" windowWidth="25480" windowHeight="15940" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
+    <workbookView xWindow="-32580" yWindow="820" windowWidth="31900" windowHeight="19520" activeTab="6" xr2:uid="{424AD499-A585-D54A-A072-11066C252891}"/>
   </bookViews>
   <sheets>
     <sheet name="Willow" sheetId="1" r:id="rId1"/>
     <sheet name="Typha" sheetId="2" r:id="rId2"/>
     <sheet name="Cladophora" sheetId="3" r:id="rId3"/>
     <sheet name="SAS" sheetId="4" r:id="rId4"/>
-    <sheet name="Steelhead" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
+    <sheet name="Steelhead" sheetId="5" r:id="rId6"/>
+    <sheet name="Willow2" sheetId="6" r:id="rId7"/>
+    <sheet name="Typha2" sheetId="7" r:id="rId8"/>
+    <sheet name="Cladophora2" sheetId="8" r:id="rId9"/>
+    <sheet name="SAS2" sheetId="10" r:id="rId10"/>
+    <sheet name="Steelhead2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="450">
   <si>
     <t>LA202</t>
   </si>
@@ -710,6 +716,684 @@
   </si>
   <si>
     <t>36-269</t>
+  </si>
+  <si>
+    <t>77-568</t>
+  </si>
+  <si>
+    <t>24-65</t>
+  </si>
+  <si>
+    <t>0.0025 - 14</t>
+  </si>
+  <si>
+    <t>0.0025 - 2398</t>
+  </si>
+  <si>
+    <t>0.03-5</t>
+  </si>
+  <si>
+    <t>0.0025-45</t>
+  </si>
+  <si>
+    <t>0.83-182.2</t>
+  </si>
+  <si>
+    <t>48-209</t>
+  </si>
+  <si>
+    <t>9.83-162</t>
+  </si>
+  <si>
+    <t>2-304</t>
+  </si>
+  <si>
+    <t>1 to  14</t>
+  </si>
+  <si>
+    <t>1 to 5</t>
+  </si>
+  <si>
+    <t>1-182</t>
+  </si>
+  <si>
+    <t>10-162</t>
+  </si>
+  <si>
+    <t>4-298</t>
+  </si>
+  <si>
+    <t>0.0025-94</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>26-4683</t>
+  </si>
+  <si>
+    <t>26-683</t>
+  </si>
+  <si>
+    <t>32-260</t>
+  </si>
+  <si>
+    <t>64-435</t>
+  </si>
+  <si>
+    <t>47-13667</t>
+  </si>
+  <si>
+    <t>47-3591</t>
+  </si>
+  <si>
+    <t>&gt;118</t>
+  </si>
+  <si>
+    <t>&gt;199</t>
+  </si>
+  <si>
+    <t>&lt;42906</t>
+  </si>
+  <si>
+    <t>60-24022</t>
+  </si>
+  <si>
+    <t>60-4516</t>
+  </si>
+  <si>
+    <t>80-138</t>
+  </si>
+  <si>
+    <t>80-234</t>
+  </si>
+  <si>
+    <t>&lt;46292</t>
+  </si>
+  <si>
+    <t>93-20232</t>
+  </si>
+  <si>
+    <t>93-5453</t>
+  </si>
+  <si>
+    <t>&gt;348</t>
+  </si>
+  <si>
+    <t>&gt;557</t>
+  </si>
+  <si>
+    <t>&lt;47491</t>
+  </si>
+  <si>
+    <t>63-13447</t>
+  </si>
+  <si>
+    <t>63-2151</t>
+  </si>
+  <si>
+    <t>&gt;266</t>
+  </si>
+  <si>
+    <t>&gt;486</t>
+  </si>
+  <si>
+    <t>&lt;49845</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>1-564</t>
+  </si>
+  <si>
+    <t>&gt;407</t>
+  </si>
+  <si>
+    <t>&gt;701</t>
+  </si>
+  <si>
+    <t>17-2659</t>
+  </si>
+  <si>
+    <t>45-300</t>
+  </si>
+  <si>
+    <t>50-4093</t>
+  </si>
+  <si>
+    <t>60-914</t>
+  </si>
+  <si>
+    <t>192-16595</t>
+  </si>
+  <si>
+    <t>332-6816</t>
+  </si>
+  <si>
+    <t>537-4758</t>
+  </si>
+  <si>
+    <t>927-1149</t>
+  </si>
+  <si>
+    <t>57-4572</t>
+  </si>
+  <si>
+    <t>195-747</t>
+  </si>
+  <si>
+    <t>118-13667</t>
+  </si>
+  <si>
+    <t>199-3591</t>
+  </si>
+  <si>
+    <t>348-20232</t>
+  </si>
+  <si>
+    <t>557-5453</t>
+  </si>
+  <si>
+    <t>266-12447</t>
+  </si>
+  <si>
+    <t>486-2151</t>
+  </si>
+  <si>
+    <t>1 to 2899</t>
+  </si>
+  <si>
+    <t>407-2899</t>
+  </si>
+  <si>
+    <t>1 to 249</t>
+  </si>
+  <si>
+    <t>1 to 4</t>
+  </si>
+  <si>
+    <t>&gt;2287</t>
+  </si>
+  <si>
+    <t>&gt;3603</t>
+  </si>
+  <si>
+    <t>&lt;8328</t>
+  </si>
+  <si>
+    <t>246-304</t>
+  </si>
+  <si>
+    <t>158-301</t>
+  </si>
+  <si>
+    <t>46-211</t>
+  </si>
+  <si>
+    <t>72-184</t>
+  </si>
+  <si>
+    <t>158-184</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>29-60</t>
+  </si>
+  <si>
+    <t>136-870</t>
+  </si>
+  <si>
+    <t>58-487</t>
+  </si>
+  <si>
+    <t>103-378</t>
+  </si>
+  <si>
+    <t>872-2091</t>
+  </si>
+  <si>
+    <t>466-1102</t>
+  </si>
+  <si>
+    <t>62-632</t>
+  </si>
+  <si>
+    <t>98-510</t>
+  </si>
+  <si>
+    <t>104-1950</t>
+  </si>
+  <si>
+    <t>251-1417</t>
+  </si>
+  <si>
+    <t>43-447</t>
+  </si>
+  <si>
+    <t>73-364</t>
+  </si>
+  <si>
+    <t>40-323</t>
+  </si>
+  <si>
+    <t>70-252</t>
+  </si>
+  <si>
+    <t>18-60</t>
+  </si>
+  <si>
+    <t>104-632</t>
+  </si>
+  <si>
+    <t>251-510</t>
+  </si>
+  <si>
+    <t>104-447</t>
+  </si>
+  <si>
+    <t>251-364</t>
+  </si>
+  <si>
+    <t>prolonged recs</t>
+  </si>
+  <si>
+    <t>84-451</t>
+  </si>
+  <si>
+    <t>25-214</t>
+  </si>
+  <si>
+    <t>43-17069</t>
+  </si>
+  <si>
+    <t>998-5275</t>
+  </si>
+  <si>
+    <t>26-23399</t>
+  </si>
+  <si>
+    <t>25-25087</t>
+  </si>
+  <si>
+    <t>26-3958</t>
+  </si>
+  <si>
+    <t>&gt;63</t>
+  </si>
+  <si>
+    <t>47-689</t>
+  </si>
+  <si>
+    <t>60-2587</t>
+  </si>
+  <si>
+    <t>63-7144</t>
+  </si>
+  <si>
+    <t>57-25087</t>
+  </si>
+  <si>
+    <t>63-689</t>
+  </si>
+  <si>
+    <t>&gt;62</t>
+  </si>
+  <si>
+    <t>62-2698</t>
+  </si>
+  <si>
+    <t>&gt;16</t>
+  </si>
+  <si>
+    <t>1.6-3091</t>
+  </si>
+  <si>
+    <t>16-3091</t>
+  </si>
+  <si>
+    <t>Germination</t>
+  </si>
+  <si>
+    <t>Remove and replace with 5cm flow limit for main channel</t>
+  </si>
+  <si>
+    <t>5cm limit in MC</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>394-1038</t>
+  </si>
+  <si>
+    <t>shear still not right - check</t>
+  </si>
+  <si>
+    <t>&lt;595</t>
+  </si>
+  <si>
+    <t>&lt;2778</t>
+  </si>
+  <si>
+    <t>still below min limit to reach</t>
+  </si>
+  <si>
+    <t>&lt;91</t>
+  </si>
+  <si>
+    <t>&lt;42</t>
+  </si>
+  <si>
+    <t>no MC - check</t>
+  </si>
+  <si>
+    <t>0.0025-0.1</t>
+  </si>
+  <si>
+    <t>check this</t>
+  </si>
+  <si>
+    <t>&lt;452</t>
+  </si>
+  <si>
+    <t>&lt;256</t>
+  </si>
+  <si>
+    <t>changed to MC - high shear is range but lower limit is min flow</t>
+  </si>
+  <si>
+    <t>checked?</t>
+  </si>
+  <si>
+    <t>4-299</t>
+  </si>
+  <si>
+    <t>26-55</t>
+  </si>
+  <si>
+    <t>23-166</t>
+  </si>
+  <si>
+    <t>23-197</t>
+  </si>
+  <si>
+    <t>&lt;1432</t>
+  </si>
+  <si>
+    <t>&lt;1028</t>
+  </si>
+  <si>
+    <t>&lt;63</t>
+  </si>
+  <si>
+    <t>84-1968</t>
+  </si>
+  <si>
+    <t>294-1419</t>
+  </si>
+  <si>
+    <t>23-23</t>
+  </si>
+  <si>
+    <t>77-1704</t>
+  </si>
+  <si>
+    <t>271-1238</t>
+  </si>
+  <si>
+    <t>24-1243</t>
+  </si>
+  <si>
+    <t>94-824</t>
+  </si>
+  <si>
+    <t>no depth?</t>
+  </si>
+  <si>
+    <t>change to overbank</t>
+  </si>
+  <si>
+    <t>26-1092</t>
+  </si>
+  <si>
+    <t>104-1000</t>
+  </si>
+  <si>
+    <t>48-210</t>
+  </si>
+  <si>
+    <t>2-305</t>
+  </si>
+  <si>
+    <t>&gt;46</t>
+  </si>
+  <si>
+    <t>0.45-4094</t>
+  </si>
+  <si>
+    <t>&gt;984</t>
+  </si>
+  <si>
+    <t>&gt;1588</t>
+  </si>
+  <si>
+    <t>Checked?</t>
+  </si>
+  <si>
+    <t>23-4759</t>
+  </si>
+  <si>
+    <t>&gt;538</t>
+  </si>
+  <si>
+    <t>&lt;40591</t>
+  </si>
+  <si>
+    <t>25-4572</t>
+  </si>
+  <si>
+    <t>25-747</t>
+  </si>
+  <si>
+    <t>&lt;40889</t>
+  </si>
+  <si>
+    <t>&gt;28</t>
+  </si>
+  <si>
+    <t>60-24023</t>
+  </si>
+  <si>
+    <t>80-235</t>
+  </si>
+  <si>
+    <t>63-13448</t>
+  </si>
+  <si>
+    <t>63-2152</t>
+  </si>
+  <si>
+    <t>&gt;267</t>
+  </si>
+  <si>
+    <t>1 to 2700</t>
+  </si>
+  <si>
+    <t>247-304</t>
+  </si>
+  <si>
+    <t>46-212</t>
+  </si>
+  <si>
+    <t>&gt;2288</t>
+  </si>
+  <si>
+    <t>278-5169</t>
+  </si>
+  <si>
+    <t>530-2724</t>
+  </si>
+  <si>
+    <t>45-615</t>
+  </si>
+  <si>
+    <t>137-482</t>
+  </si>
+  <si>
+    <t>8-1597</t>
+  </si>
+  <si>
+    <t>14-870</t>
+  </si>
+  <si>
+    <t>23-517</t>
+  </si>
+  <si>
+    <t>100-405</t>
+  </si>
+  <si>
+    <t>34-3082</t>
+  </si>
+  <si>
+    <t>149-2000</t>
+  </si>
+  <si>
+    <t>873-2091</t>
+  </si>
+  <si>
+    <t>466-1103</t>
+  </si>
+  <si>
+    <t>26-356</t>
+  </si>
+  <si>
+    <t>34-244</t>
+  </si>
+  <si>
+    <t>188-1218</t>
+  </si>
+  <si>
+    <t>105-1020</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>lob</t>
+  </si>
+  <si>
+    <t>&lt;349</t>
+  </si>
+  <si>
+    <t>35-274</t>
+  </si>
+  <si>
+    <t>26-193</t>
+  </si>
+  <si>
+    <t>26-133</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>2-215</t>
+  </si>
+  <si>
+    <t>2 to 2134</t>
+  </si>
+  <si>
+    <t>&gt;8-17070</t>
+  </si>
+  <si>
+    <t>&gt;8-39232</t>
+  </si>
+  <si>
+    <t>38-40486</t>
+  </si>
+  <si>
+    <t>38-5276</t>
+  </si>
+  <si>
+    <t>23-23399</t>
+  </si>
+  <si>
+    <t>23-40591</t>
+  </si>
+  <si>
+    <t>&gt;35</t>
+  </si>
+  <si>
+    <t>25-40889</t>
+  </si>
+  <si>
+    <t>26-3828</t>
+  </si>
+  <si>
+    <t>26-10556</t>
+  </si>
+  <si>
+    <t>&gt;47</t>
+  </si>
+  <si>
+    <t>47-3356</t>
+  </si>
+  <si>
+    <t>60-9839</t>
+  </si>
+  <si>
+    <t>63-7145</t>
+  </si>
+  <si>
+    <t>63-24042</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>1.6-16913</t>
+  </si>
+  <si>
+    <t>&gt;6</t>
+  </si>
+  <si>
+    <t>62-13951</t>
+  </si>
+  <si>
+    <t>updated data</t>
+  </si>
+  <si>
+    <t>depth is too deep, use velocity values only</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>shear begins at 180 pa in overbanks whereas shear limit is 1.5</t>
+  </si>
+  <si>
+    <t>only based on depth both probs</t>
+  </si>
+  <si>
+    <t>high prob based on depth</t>
+  </si>
+  <si>
+    <t>&lt;2</t>
+  </si>
+  <si>
+    <t>taken lower limit</t>
   </si>
 </sst>
 </file>
@@ -790,12 +1474,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -810,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,12 +1527,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C44ECAE-18BD-9B44-A259-6876D2537660}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1891,7 @@
     <col min="9" max="9" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1192,8 +1916,11 @@
       <c r="I1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,8 +1945,11 @@
       <c r="J2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1234,8 +1964,11 @@
       <c r="I3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>39</v>
@@ -1243,24 +1976,39 @@
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1.19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="L5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
@@ -1286,8 +2034,14 @@
       <c r="J6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -1302,8 +2056,14 @@
       <c r="I7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>39</v>
@@ -1317,8 +2077,14 @@
       <c r="F8" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1329,8 +2095,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1339,8 +2111,14 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10">
+        <v>36.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1359,8 +2137,14 @@
       <c r="H11">
         <v>394.48394775390602</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="22">
+        <v>11101250</v>
+      </c>
+      <c r="M11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -1375,7 +2159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -1390,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1399,12 +2183,12 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1942,16 +2726,16 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
@@ -1989,12 +2773,2145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F58EA-6C74-ED4B-AC85-EB1CBF5A1971}">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="15">
+        <v>7.66</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="15">
+        <v>22.984325399999999</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="15">
+        <v>25</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="15">
+        <v>26</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="15">
+        <v>22.984325399999999</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="K55" s="15"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A232BBBD-FCAD-864D-9E5F-ECFD3BD6C7BE}">
+  <dimension ref="A1:K82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>0.45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>1.9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="I16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3"/>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>7.66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="I24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="3"/>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
+      <c r="I26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="21">
+        <v>24.505453110000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>26.229257579999999</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53">
+        <v>46.507335660000003</v>
+      </c>
+      <c r="H53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="15">
+        <v>59.737518299999998</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="15">
+        <v>62.577335400000003</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="15">
+        <v>61.813758900000003</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>1.5979483130000001</v>
+      </c>
+      <c r="H78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08258E46-6C5B-3845-AB5F-F130D4BBDC74}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2327,6 +5244,15 @@
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -2364,6 +5290,15 @@
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>5.3034481000000001E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
@@ -2509,7 +5444,9 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="18">
+        <v>19146</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2636,8 +5573,12 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -2701,8 +5642,12 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="7"/>
+      <c r="D68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
@@ -2766,8 +5711,12 @@
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="7"/>
+      <c r="D74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
@@ -2783,13 +5732,30 @@
       <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76">
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="D77" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
@@ -2801,8 +5767,12 @@
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="D79" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>235</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
@@ -2822,14 +5792,30 @@
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81">
+        <v>5.3034481000000001E-2</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="D82" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
@@ -2840,8 +5826,12 @@
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
@@ -2913,10 +5903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69081ECA-0F5B-254E-9655-7017F006CF89}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,7 +5916,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -2949,7 +5939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -2969,7 +5959,7 @@
         <v>1.5979483127594001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>123</v>
@@ -2982,7 +5972,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>124</v>
@@ -2990,19 +5980,29 @@
       <c r="F4" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>270</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -3010,8 +6010,11 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3030,8 +6033,11 @@
       <c r="H7">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>123</v>
@@ -3042,8 +6048,11 @@
       <c r="E8" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>124</v>
@@ -3054,18 +6063,30 @@
       <c r="K9" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
+      <c r="D10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
@@ -3075,8 +6096,11 @@
       <c r="K11" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3084,8 +6108,11 @@
       <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>126</v>
       </c>
@@ -3107,8 +6134,11 @@
       <c r="K13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>123</v>
@@ -3123,7 +6153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>124</v>
@@ -3135,12 +6165,18 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
+      <c r="D16" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
       </c>
@@ -3221,7 +6257,12 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -3284,7 +6325,12 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -3300,7 +6346,16 @@
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D30" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
         <v>26</v>
       </c>
     </row>
@@ -3309,59 +6364,97 @@
       <c r="B31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="D31" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
+      <c r="D33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D35" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="G35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
+      <c r="D38" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>70</v>
       </c>
@@ -3369,49 +6462,450 @@
       <c r="C39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D41" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="G41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>59.737518309999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
+      <c r="D44" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="G45" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>92.618530269999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>62.577335359999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70">
+        <v>0.84282273100000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="D73" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="D79" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="D85" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3422,8 +6916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98868F43-95AF-034B-9F5A-924E43B3E2AC}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3509,8 +7003,12 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -3595,8 +7093,12 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>299</v>
+      </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3653,24 +7155,28 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -3681,7 +7187,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3690,44 +7196,61 @@
       <c r="F20" s="11"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -3735,45 +7258,63 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="F29" s="11"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>157</v>
       </c>
@@ -3784,7 +7325,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3799,13 +7340,17 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3821,8 +7366,12 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="K34" s="1" t="s">
         <v>4</v>
@@ -3877,8 +7426,12 @@
       <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="K38" s="1" t="s">
         <v>8</v>
@@ -3897,8 +7450,12 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3947,8 +7504,12 @@
       <c r="B44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3964,8 +7525,12 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="13"/>
+      <c r="D46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3995,8 +7560,12 @@
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4004,8 +7573,12 @@
       <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4021,8 +7594,12 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4040,8 +7617,12 @@
       <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4049,8 +7630,12 @@
       <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>307</v>
+      </c>
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4066,8 +7651,12 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>316</v>
+      </c>
       <c r="F57" s="11"/>
       <c r="G57" s="3"/>
     </row>
@@ -4077,11 +7666,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3EE7A9-E1BD-1542-84B7-3E44330F16A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C0F6AF-BA62-5A49-9975-A49839EAE4BB}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4090,7 +7691,7 @@
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -4106,15 +7707,18 @@
       <c r="F1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="12"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4133,8 +7737,11 @@
       <c r="F3">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>176</v>
@@ -4146,7 +7753,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>177</v>
@@ -4158,7 +7765,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>177</v>
@@ -4170,7 +7777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>178</v>
@@ -4181,8 +7788,9 @@
       <c r="D7" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>69</v>
       </c>
@@ -4190,7 +7798,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -4198,15 +7806,16 @@
       <c r="C9" s="3"/>
       <c r="D9" s="11"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="11"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -4225,11 +7834,15 @@
       <c r="F11">
         <v>1.9</v>
       </c>
+      <c r="H11" t="s">
+        <v>319</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>176</v>
@@ -4243,8 +7856,9 @@
       <c r="I12" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>177</v>
@@ -4259,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>177</v>
@@ -4272,7 +7886,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>178</v>
@@ -4285,7 +7899,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
@@ -4337,6 +7951,9 @@
       <c r="F19">
         <v>7.66</v>
       </c>
+      <c r="H19" t="s">
+        <v>320</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>8</v>
       </c>
@@ -4449,6 +8066,9 @@
       <c r="F27">
         <v>37</v>
       </c>
+      <c r="H27" t="s">
+        <v>321</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>92</v>
       </c>
@@ -4509,13 +8129,13 @@
       <c r="C32" s="1"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>175</v>
       </c>
@@ -4525,15 +8145,20 @@
       <c r="C34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>176</v>
@@ -4541,9 +8166,11 @@
       <c r="C35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>177</v>
@@ -4553,7 +8180,7 @@
       </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>177</v>
@@ -4563,7 +8190,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>178</v>
@@ -4573,7 +8200,7 @@
       </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>61</v>
       </c>
@@ -4582,181 +8209,3400 @@
       <c r="D39" s="11"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="4"/>
       <c r="D40" s="11"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="21">
+        <v>24.505453110000001</v>
+      </c>
+      <c r="H41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
       <c r="D46" s="11"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>26.229257579999999</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="3"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D51" s="11"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
       <c r="D52" s="11"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53">
+        <v>46.507335660000003</v>
+      </c>
+      <c r="H53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="3"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D57" s="11"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="3"/>
       <c r="D58" s="11"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="15">
+        <v>59.737518299999998</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="15">
+        <v>62.577335400000003</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D67" s="11"/>
       <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="15">
+        <v>61.813758900000003</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78">
+        <v>1.5979483130000001</v>
+      </c>
+      <c r="H78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FF20BB-97ED-0649-8E08-601268DDE8EA}">
+  <dimension ref="A1:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="43.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>1278</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="L9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>36.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>394.48394775390602</v>
+      </c>
+      <c r="L10" s="22">
+        <v>11101250</v>
+      </c>
+      <c r="M10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>22.98432541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17">
+        <v>197.822830200195</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>418.54925539999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="I23" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>26.2292575836182</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <v>51</v>
+      </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="D36" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>5.3034481000000001E-2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="F39" t="s">
+        <v>449</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B60:I60"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E9C2A0-B6CC-044E-9EA1-C4EC08B779B1}">
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>23.112771987915</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>22.984325408935501</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>24.5054531097412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>26.229257579999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>354</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>5.3034481000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>361</v>
+      </c>
+      <c r="E53" t="s">
+        <v>362</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>23.112771987915</v>
+      </c>
+      <c r="H53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>364</v>
+      </c>
+      <c r="E59" t="s">
+        <v>365</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>22.98432541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" t="s">
+        <v>367</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>24.5054531097412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>26.229257579999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81">
+        <v>5.3034481000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F4921-4749-A04B-8B90-F2AFCE936E31}">
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="11"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>1.5979483127594001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="17"/>
+      <c r="M5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="17"/>
+      <c r="M6" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>0.45</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="K11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="K18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>59.737518309999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>92.618530269999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>62.577335359999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70">
+        <v>0.84282273100000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="D73" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="D79" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>11101250</v>
+      </c>
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="D85" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
